--- a/server/students.xlsx
+++ b/server/students.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="студенты_МЭП-18" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="студенты_ТЭМ-18" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>номер</t>
   </si>
@@ -22,16 +22,13 @@
     <t>балл</t>
   </si>
   <si>
-    <t>Бобров Осип Антонинович</t>
-  </si>
-  <si>
-    <t>Силин Гавриил Пётрович</t>
-  </si>
-  <si>
-    <t>Власов Ким Васильевич</t>
-  </si>
-  <si>
-    <t>Евсеев Емельян Адольфович</t>
+    <t>Горбунов Аверьян Федорович</t>
+  </si>
+  <si>
+    <t>Ермаков Ермак Оскарович</t>
+  </si>
+  <si>
+    <t>Гришин Артем Германнович</t>
   </si>
 </sst>
 </file>
@@ -412,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -439,7 +436,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>4.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -450,7 +447,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -461,18 +458,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
